--- a/results_final/ci_LM.xlsx
+++ b/results_final/ci_LM.xlsx
@@ -519,91 +519,91 @@
         <v>0.236257522822892</v>
       </c>
       <c r="D2">
-        <v>0.2353619261360337</v>
+        <v>0.2353718485121202</v>
       </c>
       <c r="E2">
-        <v>0.2344777391588706</v>
+        <v>0.2345071090128701</v>
       </c>
       <c r="F2">
-        <v>0.2336047868297565</v>
+        <v>0.2336627466964866</v>
       </c>
       <c r="G2">
-        <v>0.2327428973351121</v>
+        <v>0.2328382212960632</v>
       </c>
       <c r="H2">
-        <v>0.2318919020384122</v>
+        <v>0.2320330092685682</v>
       </c>
       <c r="I2">
-        <v>0.2310516354109469</v>
+        <v>0.2312466031841278</v>
       </c>
       <c r="J2">
-        <v>0.2302219349643078</v>
+        <v>0.2304785111411605</v>
       </c>
       <c r="K2">
-        <v>0.2294026411845498</v>
+        <v>0.2297282562061287</v>
       </c>
       <c r="L2">
-        <v>0.2285935974679836</v>
+        <v>0.2289953758767353</v>
       </c>
       <c r="M2">
-        <v>0.2277946500585531</v>
+        <v>0.2282794215674596</v>
       </c>
       <c r="N2">
-        <v>0.2270056479867535</v>
+        <v>0.2275799581163801</v>
       </c>
       <c r="O2">
-        <v>0.2262264430100482</v>
+        <v>0.2268965633122883</v>
       </c>
       <c r="P2">
-        <v>0.2254568895547442</v>
+        <v>0.226228827441151</v>
       </c>
       <c r="Q2">
-        <v>0.2246968446592839</v>
+        <v>0.2255763528510226</v>
       </c>
       <c r="R2">
-        <v>0.2239461679189175</v>
+        <v>0.2249387535345606</v>
       </c>
       <c r="S2">
-        <v>0.2232047214317159</v>
+        <v>0.2243156547283351</v>
       </c>
       <c r="T2">
-        <v>0.2224723697458895</v>
+        <v>0.2237066925281694</v>
       </c>
       <c r="U2">
-        <v>0.2217489798083766</v>
+        <v>0.2231115135197824</v>
       </c>
       <c r="V2">
-        <v>0.2210344209146678</v>
+        <v>0.2225297744240447</v>
       </c>
       <c r="W2">
-        <v>0.2203285646598325</v>
+        <v>0.2219611417561905</v>
       </c>
       <c r="X2">
-        <v>0.2196312848907158</v>
+        <v>0.2214052914983637</v>
       </c>
       <c r="Y2">
-        <v>0.2189424576592747</v>
+        <v>0.2208619087849057</v>
       </c>
       <c r="Z2">
-        <v>0.218261961177022</v>
+        <v>0.2203306875998202</v>
       </c>
       <c r="AA2">
-        <v>0.2175896757705505</v>
+        <v>0.2198113304858821</v>
       </c>
       <c r="AB2">
-        <v>0.2169254838381063</v>
+        <v>0.2193035482648784</v>
       </c>
       <c r="AC2">
-        <v>0.2162692698071857</v>
+        <v>0.2188070597684988</v>
       </c>
       <c r="AD2">
-        <v>0.2156209200931281</v>
+        <v>0.2183215915794135</v>
       </c>
       <c r="AE2">
-        <v>0.2149803230586771</v>
+        <v>0.2178468777820989</v>
       </c>
       <c r="AF2">
-        <v>0.2143473689744872</v>
+        <v>0.2173826597229948</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -617,91 +617,91 @@
         <v>0.2093131140741207</v>
       </c>
       <c r="D3">
-        <v>0.2046359704259796</v>
+        <v>0.204687308283096</v>
       </c>
       <c r="E3">
-        <v>0.2001040330621198</v>
+        <v>0.2002532168479658</v>
       </c>
       <c r="F3">
-        <v>0.1957119046929254</v>
+        <v>0.196001012992368</v>
       </c>
       <c r="G3">
-        <v>0.191454418041592</v>
+        <v>0.1919214668557886</v>
       </c>
       <c r="H3">
-        <v>0.1873266249008018</v>
+        <v>0.1880059040570481</v>
       </c>
       <c r="I3">
-        <v>0.1833237857605516</v>
+        <v>0.1842461674656197</v>
       </c>
       <c r="J3">
-        <v>0.1794413599748406</v>
+        <v>0.1806345819083796</v>
       </c>
       <c r="K3">
-        <v>0.17567499643688</v>
+        <v>0.1771639215644567</v>
       </c>
       <c r="L3">
-        <v>0.1720205247343264</v>
+        <v>0.1738273798234375</v>
       </c>
       <c r="M3">
-        <v>0.1684739467577488</v>
+        <v>0.1706185414025638</v>
       </c>
       <c r="N3">
-        <v>0.1650314287371487</v>
+        <v>0.1675313565369448</v>
       </c>
       <c r="O3">
-        <v>0.1616892936828551</v>
+        <v>0.1645601170734229</v>
       </c>
       <c r="P3">
-        <v>0.1584440142085188</v>
+        <v>0.1616994343137469</v>
       </c>
       <c r="Q3">
-        <v>0.1552922057152555</v>
+        <v>0.1589442184662954</v>
       </c>
       <c r="R3">
-        <v>0.1522306199172146</v>
+        <v>0.1562896595778898</v>
       </c>
       <c r="S3">
-        <v>0.1492561386900123</v>
+        <v>0.1537312098283835</v>
       </c>
       <c r="T3">
-        <v>0.1463657682245519</v>
+        <v>0.1512645670808157</v>
       </c>
       <c r="U3">
-        <v>0.1435566334697683</v>
+        <v>0.1488856595890863</v>
       </c>
       <c r="V3">
-        <v>0.1408259728487921</v>
+        <v>0.1465906317734334</v>
       </c>
       <c r="W3">
-        <v>0.1381711332339196</v>
+        <v>0.1443758309815541</v>
       </c>
       <c r="X3">
-        <v>0.1355895651666174</v>
+        <v>0.1422377951600907</v>
       </c>
       <c r="Y3">
-        <v>0.1330788183095781</v>
+        <v>0.1401732413674559</v>
       </c>
       <c r="Z3">
-        <v>0.1306365371185832</v>
+        <v>0.1381790550646707</v>
       </c>
       <c r="AA3">
-        <v>0.1282604567226242</v>
+        <v>0.1362522801260745</v>
       </c>
       <c r="AB3">
-        <v>0.1259483990013877</v>
+        <v>0.1343901095165029</v>
       </c>
       <c r="AC3">
-        <v>0.1236982688498214</v>
+        <v>0.132589876585839</v>
       </c>
       <c r="AD3">
-        <v>0.1215080506200772</v>
+        <v>0.1308490469357894</v>
       </c>
       <c r="AE3">
-        <v>0.1193758047316657</v>
+        <v>0.1291652108173309</v>
       </c>
       <c r="AF3">
-        <v>0.1172996644411727</v>
+        <v>0.1275360760205657</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -715,91 +715,91 @@
         <v>0.2083631273380663</v>
       </c>
       <c r="D4">
-        <v>0.2043945440559312</v>
+        <v>0.2044381773905846</v>
       </c>
       <c r="E4">
-        <v>0.2005362524603754</v>
+        <v>0.200663466784957</v>
       </c>
       <c r="F4">
-        <v>0.1967845410569335</v>
+        <v>0.1970318774192992</v>
       </c>
       <c r="G4">
-        <v>0.193135842757326</v>
+        <v>0.193536693167284</v>
       </c>
       <c r="H4">
-        <v>0.1895867285696284</v>
+        <v>0.1901715738038382</v>
       </c>
       <c r="I4">
-        <v>0.1861339015922516</v>
+        <v>0.1869305308239494</v>
       </c>
       <c r="J4">
-        <v>0.182774191295826</v>
+        <v>0.1838079050033858</v>
       </c>
       <c r="K4">
-        <v>0.1795045480779848</v>
+        <v>0.1807983455632521</v>
       </c>
       <c r="L4">
-        <v>0.1763220380768779</v>
+        <v>0.1778967908121949</v>
       </c>
       <c r="M4">
-        <v>0.1732238382300439</v>
+        <v>0.175098450150864</v>
       </c>
       <c r="N4">
-        <v>0.1702072315660098</v>
+        <v>0.1723987873330318</v>
       </c>
       <c r="O4">
-        <v>0.1672696027166894</v>
+        <v>0.1697935048866767</v>
       </c>
       <c r="P4">
-        <v>0.1644084336393089</v>
+        <v>0.1672785296064282</v>
       </c>
       <c r="Q4">
-        <v>0.16162129953721</v>
+        <v>0.1648499990361364</v>
       </c>
       <c r="R4">
-        <v>0.1589058649694623</v>
+        <v>0.1625042488670337</v>
       </c>
       <c r="S4">
-        <v>0.1562598801397667</v>
+        <v>0.160237801183063</v>
       </c>
       <c r="T4">
-        <v>0.1536811773556493</v>
+        <v>0.1580473534905177</v>
       </c>
       <c r="U4">
-        <v>0.1511676676494311</v>
+        <v>0.1559297684742167</v>
       </c>
       <c r="V4">
-        <v>0.1487173375529203</v>
+        <v>0.1538820644270753</v>
       </c>
       <c r="W4">
-        <v>0.146328246018203</v>
+        <v>0.1519014063041716</v>
       </c>
       <c r="X4">
-        <v>0.1439985214773184</v>
+        <v>0.1499850973562734</v>
       </c>
       <c r="Y4">
-        <v>0.1417263590339883</v>
+        <v>0.1481305713013379</v>
       </c>
       <c r="Z4">
-        <v>0.1395100177809329</v>
+        <v>0.1463353849957335</v>
       </c>
       <c r="AA4">
-        <v>0.1373478182366465</v>
+        <v>0.1445972115698981</v>
       </c>
       <c r="AB4">
-        <v>0.1352381398958299</v>
+        <v>0.1429138339958728</v>
       </c>
       <c r="AC4">
-        <v>0.1331794188879798</v>
+        <v>0.1412831390566351</v>
       </c>
       <c r="AD4">
-        <v>0.1311701457389239</v>
+        <v>0.1397031116894478</v>
       </c>
       <c r="AE4">
-        <v>0.1292088632303605</v>
+        <v>0.138171829677534</v>
       </c>
       <c r="AF4">
-        <v>0.1272941643527179</v>
+        <v>0.1366874586663191</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -813,91 +813,91 @@
         <v>0.2340017226395489</v>
       </c>
       <c r="D5">
-        <v>0.232729070776444</v>
+        <v>0.2327431590263002</v>
       </c>
       <c r="E5">
-        <v>0.231474701231073</v>
+        <v>0.2315163343073646</v>
       </c>
       <c r="F5">
-        <v>0.2302382909576091</v>
+        <v>0.2303203203738925</v>
       </c>
       <c r="G5">
-        <v>0.2290195238138384</v>
+        <v>0.229154221414034</v>
       </c>
       <c r="H5">
-        <v>0.2278180903888123</v>
+        <v>0.2280171725850294</v>
       </c>
       <c r="I5">
-        <v>0.226633687835379</v>
+        <v>0.2269083387481071</v>
       </c>
       <c r="J5">
-        <v>0.2254660197074413</v>
+        <v>0.2258269132628583</v>
       </c>
       <c r="K5">
-        <v>0.2243147958017928</v>
+        <v>0.2247721168379529</v>
       </c>
       <c r="L5">
-        <v>0.2231797320043875</v>
+        <v>0.2237431964352427</v>
       </c>
       <c r="M5">
-        <v>0.2220605501409074</v>
+        <v>0.2227394242244689</v>
       </c>
       <c r="N5">
-        <v>0.2209569778314923</v>
+        <v>0.2217600965859507</v>
       </c>
       <c r="O5">
-        <v>0.2198687483495027</v>
+        <v>0.2208045331587821</v>
       </c>
       <c r="P5">
-        <v>0.2187956004841936</v>
+        <v>0.219872075932203</v>
       </c>
       <c r="Q5">
-        <v>0.2177372784071761</v>
+        <v>0.2189620883779457</v>
       </c>
       <c r="R5">
-        <v>0.2166935315425519</v>
+        <v>0.2180739546214772</v>
       </c>
       <c r="S5">
-        <v>0.2156641144406078</v>
+        <v>0.217207078650179</v>
       </c>
       <c r="T5">
-        <v>0.2146487866549626</v>
+        <v>0.2163608835566098</v>
       </c>
       <c r="U5">
-        <v>0.2136473126230593</v>
+        <v>0.2155348108151041</v>
       </c>
       <c r="V5">
-        <v>0.2126594615499034</v>
+        <v>0.2147283195900515</v>
       </c>
       <c r="W5">
-        <v>0.2116850072949481</v>
+        <v>0.2139408860742957</v>
       </c>
       <c r="X5">
-        <v>0.210723728262031</v>
+        <v>0.2131720028561749</v>
       </c>
       <c r="Y5">
-        <v>0.2097754072922721</v>
+        <v>0.2124211783138056</v>
       </c>
       <c r="Z5">
-        <v>0.2088398315598429</v>
+        <v>0.2116879360352886</v>
       </c>
       <c r="AA5">
-        <v>0.2079167924705217</v>
+        <v>0.2109718142635857</v>
       </c>
       <c r="AB5">
-        <v>0.207006085562952</v>
+        <v>0.2102723653648823</v>
       </c>
       <c r="AC5">
-        <v>0.2061075104125237</v>
+        <v>0.209589155319314</v>
       </c>
       <c r="AD5">
-        <v>0.2052208705377991</v>
+        <v>0.2089217632329957</v>
       </c>
       <c r="AE5">
-        <v>0.2043459733094095</v>
+        <v>0.2082697808703457</v>
       </c>
       <c r="AF5">
-        <v>0.2034826298613485</v>
+        <v>0.207632812205751</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -911,91 +911,91 @@
         <v>0.254309962413845</v>
       </c>
       <c r="D6">
-        <v>0.2508348834719487</v>
+        <v>0.2508731946691331</v>
       </c>
       <c r="E6">
-        <v>0.2474379290716285</v>
+        <v>0.2475502270873164</v>
       </c>
       <c r="F6">
-        <v>0.2441169334924329</v>
+        <v>0.2443364257226462</v>
       </c>
       <c r="G6">
-        <v>0.2408698015635413</v>
+        <v>0.2412273834808908</v>
       </c>
       <c r="H6">
-        <v>0.2376945060527132</v>
+        <v>0.2382189072354526</v>
       </c>
       <c r="I6">
-        <v>0.2345890851626463</v>
+        <v>0.2353070057684808</v>
       </c>
       <c r="J6">
-        <v>0.2315516401299069</v>
+        <v>0.232487878478556</v>
       </c>
       <c r="K6">
-        <v>0.2285803329218319</v>
+        <v>0.2297579048010359</v>
       </c>
       <c r="L6">
-        <v>0.2256733840270236</v>
+        <v>0.2271136342912908</v>
       </c>
       <c r="M6">
-        <v>0.2228290703352718</v>
+        <v>0.224551777324853</v>
       </c>
       <c r="N6">
-        <v>0.2200457231029388</v>
+        <v>0.2220691963719836</v>
       </c>
       <c r="O6">
-        <v>0.2173217260000308</v>
+        <v>0.2196628978073594</v>
       </c>
       <c r="P6">
-        <v>0.2146555132353635</v>
+        <v>0.2173300242185192</v>
       </c>
       <c r="Q6">
-        <v>0.2120455677563977</v>
+        <v>0.2150678471794085</v>
       </c>
       <c r="R6">
-        <v>0.209490419520485</v>
+        <v>0.2128737604578434</v>
       </c>
       <c r="S6">
-        <v>0.2069886438344185</v>
+        <v>0.2107452736280028</v>
       </c>
       <c r="T6">
-        <v>0.2045388597593276</v>
+        <v>0.2086800060611568</v>
       </c>
       <c r="U6">
-        <v>0.2021397285780969</v>
+        <v>0.2066756812697819</v>
       </c>
       <c r="V6">
-        <v>0.1997899523226216</v>
+        <v>0.2047301215819968</v>
       </c>
       <c r="W6">
-        <v>0.1974882723583341</v>
+        <v>0.2028412431249017</v>
       </c>
       <c r="X6">
-        <v>0.1952334680235603</v>
+        <v>0.2010070510969218</v>
       </c>
       <c r="Y6">
-        <v>0.1930243553213722</v>
+        <v>0.1992256353106619</v>
       </c>
       <c r="Z6">
-        <v>0.1908597856617148</v>
+        <v>0.1974951659890718</v>
       </c>
       <c r="AA6">
-        <v>0.1887386446516858</v>
+        <v>0.1958138897989223</v>
       </c>
       <c r="AB6">
-        <v>0.1866598509319435</v>
+        <v>0.1941801261066968</v>
       </c>
       <c r="AC6">
-        <v>0.1846223550573111</v>
+        <v>0.192592263443029</v>
       </c>
       <c r="AD6">
-        <v>0.1826251384197342</v>
+        <v>0.1910487561627651</v>
       </c>
       <c r="AE6">
-        <v>0.1806672122118293</v>
+        <v>0.1895481212886052</v>
       </c>
       <c r="AF6">
-        <v>0.1787476164293445</v>
+        <v>0.1880889355270935</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1009,91 +1009,91 @@
         <v>0.2827013628419978</v>
       </c>
       <c r="D7">
-        <v>0.2358045617244451</v>
+        <v>0.236279805530917</v>
       </c>
       <c r="E7">
-        <v>0.1970087357326853</v>
+        <v>0.1981907281669828</v>
       </c>
       <c r="F7">
-        <v>0.1648623044247401</v>
+        <v>0.1668272255641171</v>
       </c>
       <c r="G7">
-        <v>0.1381826525650081</v>
+        <v>0.1409116334840651</v>
       </c>
       <c r="H7">
-        <v>0.1160047292690335</v>
+        <v>0.1194244288805657</v>
       </c>
       <c r="I7">
-        <v>0.09753975603737733</v>
+        <v>0.1015492149264183</v>
       </c>
       <c r="J7">
-        <v>0.08214200161850739</v>
+        <v>0.08662999702469434</v>
       </c>
       <c r="K7">
-        <v>0.06928200464523601</v>
+        <v>0.07413788530620669</v>
       </c>
       <c r="L7">
-        <v>0.05852495827183909</v>
+        <v>0.06364505277032262</v>
       </c>
       <c r="M7">
-        <v>0.04951323406067484</v>
+        <v>0.0548042979233858</v>
       </c>
       <c r="N7">
-        <v>0.04195223027729329</v>
+        <v>0.04733295156364307</v>
       </c>
       <c r="O7">
-        <v>0.03559889436415985</v>
+        <v>0.04100016228577166</v>
       </c>
       <c r="P7">
-        <v>0.0302523999008187</v>
+        <v>0.03561681863975922</v>
       </c>
       <c r="Q7">
-        <v>0.02574656203954957</v>
+        <v>0.03102753563153755</v>
       </c>
       <c r="R7">
-        <v>0.02194365788503755</v>
+        <v>0.02710426270456861</v>
       </c>
       <c r="S7">
-        <v>0.0187293840019971</v>
+        <v>0.02374116939229276</v>
       </c>
       <c r="T7">
-        <v>0.01600873567421786</v>
+        <v>0.02085054087097847</v>
       </c>
       <c r="U7">
-        <v>0.01370263444819696</v>
+        <v>0.01835947420650482</v>
       </c>
       <c r="V7">
-        <v>0.01174516403961216</v>
+        <v>0.01620721133724828</v>
       </c>
       <c r="W7">
-        <v>0.01008130157124086</v>
+        <v>0.01434297990566228</v>
       </c>
       <c r="X7">
-        <v>0.008665052698885076</v>
+        <v>0.01272424031665438</v>
       </c>
       <c r="Y7">
-        <v>0.007457916538620745</v>
+        <v>0.01131525866272349</v>
       </c>
       <c r="Z7">
-        <v>0.006427620284027319</v>
+        <v>0.0100859417853922</v>
       </c>
       <c r="AA7">
-        <v>0.005547074671102331</v>
+        <v>0.009010883787096127</v>
       </c>
       <c r="AB7">
-        <v>0.004793510548496035</v>
+        <v>0.008068583569676963</v>
       </c>
       <c r="AC7">
-        <v>0.004147764169543484</v>
+        <v>0.007240801071420311</v>
       </c>
       <c r="AD7">
-        <v>0.003593684781885447</v>
+        <v>0.00651202627922613</v>
       </c>
       <c r="AE7">
-        <v>0.003117642923207162</v>
+        <v>0.005869040173141507</v>
       </c>
       <c r="AF7">
-        <v>0.002708121756221926</v>
+        <v>0.005300550801679914</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1107,91 +1107,91 @@
         <v>0.3848931328742282</v>
       </c>
       <c r="D8">
-        <v>0.3354907310523361</v>
+        <v>0.3360026804065731</v>
       </c>
       <c r="E8">
-        <v>0.2927910694860759</v>
+        <v>0.294120482404004</v>
       </c>
       <c r="F8">
-        <v>0.2558392836601719</v>
+        <v>0.2581452550694326</v>
       </c>
       <c r="G8">
-        <v>0.2238226070984604</v>
+        <v>0.2271622943092363</v>
       </c>
       <c r="H8">
-        <v>0.1960483716064657</v>
+        <v>0.2004097766164154</v>
       </c>
       <c r="I8">
-        <v>0.171925539176521</v>
+        <v>0.1772514956330936</v>
       </c>
       <c r="J8">
-        <v>0.1509491793396826</v>
+        <v>0.1571547430085155</v>
       </c>
       <c r="K8">
-        <v>0.1326874061222742</v>
+        <v>0.1396723130797741</v>
       </c>
       <c r="L8">
-        <v>0.1167703714466087</v>
+        <v>0.1244278226391004</v>
       </c>
       <c r="M8">
-        <v>0.1028809800096606</v>
+        <v>0.1111037030258783</v>
       </c>
       <c r="N8">
-        <v>0.09074704698909825</v>
+        <v>0.09943135226046637</v>
       </c>
       <c r="O8">
-        <v>0.08013466649000016</v>
+        <v>0.08918303780318403</v>
       </c>
       <c r="P8">
-        <v>0.07084259719378937</v>
+        <v>0.080165221845759</v>
       </c>
       <c r="Q8">
-        <v>0.06269750362225494</v>
+        <v>0.07221304551231084</v>
       </c>
       <c r="R8">
-        <v>0.05554991794499579</v>
+        <v>0.0651857595937225</v>
       </c>
       <c r="S8">
-        <v>0.04927080928944683</v>
+        <v>0.05896293028341838</v>
       </c>
       <c r="T8">
-        <v>0.04374866583912692</v>
+        <v>0.05344128102087096</v>
       </c>
       <c r="U8">
-        <v>0.03888701026874774</v>
+        <v>0.04853205769727815</v>
       </c>
       <c r="V8">
-        <v>0.03460228179132458</v>
+        <v>0.04415882547935544</v>
       </c>
       <c r="W8">
-        <v>0.03082202871628869</v>
+        <v>0.04025562241701893</v>
       </c>
       <c r="X8">
-        <v>0.02748336429642384</v>
+        <v>0.0367654086493822</v>
       </c>
       <c r="Y8">
-        <v>0.0245316460703468</v>
+        <v>0.03363876106641318</v>
       </c>
       <c r="Z8">
-        <v>0.0219193451300379</v>
+        <v>0.03083277223942249</v>
       </c>
       <c r="AA8">
-        <v>0.01960507696127683</v>
+        <v>0.02831011971366162</v>
       </c>
       <c r="AB8">
-        <v>0.01755276988575425</v>
+        <v>0.02603827768780285</v>
       </c>
       <c r="AC8">
-        <v>0.01573095081556626</v>
+        <v>0.02398884794867744</v>
       </c>
       <c r="AD8">
-        <v>0.01411213112866944</v>
+        <v>0.02213699089366768</v>
       </c>
       <c r="AE8">
-        <v>0.01267227808316275</v>
+        <v>0.02046094072439648</v>
       </c>
       <c r="AF8">
-        <v>0.01139035938839387</v>
+        <v>0.01894159156772683</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1202,94 +1202,94 @@
         <v>0.2300599835057191</v>
       </c>
       <c r="C9">
-        <v>0.2258272331623234</v>
+        <v>0.2258272331623235</v>
       </c>
       <c r="D9">
-        <v>0.2217094097641199</v>
+        <v>0.2217547025341859</v>
       </c>
       <c r="E9">
-        <v>0.2177027262532369</v>
+        <v>0.2178348858510426</v>
       </c>
       <c r="F9">
-        <v>0.2138035401103213</v>
+        <v>0.2140606967775138</v>
       </c>
       <c r="G9">
-        <v>0.2100083471514967</v>
+        <v>0.2104254414710412</v>
       </c>
       <c r="H9">
-        <v>0.2063137756189427</v>
+        <v>0.2069227935779278</v>
       </c>
       <c r="I9">
-        <v>0.2027165805499733</v>
+        <v>0.2035467710140522</v>
       </c>
       <c r="J9">
-        <v>0.1992136384103307</v>
+        <v>0.2002917143900317</v>
       </c>
       <c r="K9">
-        <v>0.1958019419782</v>
+        <v>0.1971522669525816</v>
       </c>
       <c r="L9">
-        <v>0.1924785954661926</v>
+        <v>0.1941233559246953</v>
       </c>
       <c r="M9">
-        <v>0.1892408098692453</v>
+        <v>0.1912001751371508</v>
       </c>
       <c r="N9">
-        <v>0.1860858985270401</v>
+        <v>0.1883781688528373</v>
       </c>
       <c r="O9">
-        <v>0.1830112728901688</v>
+        <v>0.1856530166935704</v>
       </c>
       <c r="P9">
-        <v>0.1800144384798502</v>
+        <v>0.1830206195865123</v>
       </c>
       <c r="Q9">
-        <v>0.1770929910315581</v>
+        <v>0.1804770866540963</v>
       </c>
       <c r="R9">
-        <v>0.1742446128134354</v>
+        <v>0.1780187229775412</v>
       </c>
       <c r="S9">
-        <v>0.1714670691108575</v>
+        <v>0.1756420181696845</v>
       </c>
       <c r="T9">
-        <v>0.1687582048689712</v>
+        <v>0.1733436356980159</v>
       </c>
       <c r="U9">
-        <v>0.1661159414854641</v>
+        <v>0.1711204029034986</v>
       </c>
       <c r="V9">
-        <v>0.1635382737462362</v>
+        <v>0.1689693016650702</v>
       </c>
       <c r="W9">
-        <v>0.1610232668970241</v>
+        <v>0.166887459663647</v>
       </c>
       <c r="X9">
-        <v>0.1585690538443976</v>
+        <v>0.1648721422030613</v>
       </c>
       <c r="Y9">
-        <v>0.1561738324798916</v>
+        <v>0.1629207445486554</v>
       </c>
       <c r="Z9">
-        <v>0.1538358631213588</v>
+        <v>0.1610307847472827</v>
       </c>
       <c r="AA9">
-        <v>0.151553466065938</v>
+        <v>0.1591998968952339</v>
       </c>
       <c r="AB9">
-        <v>0.1493250192493211</v>
+        <v>0.1574258248231498</v>
       </c>
       <c r="AC9">
-        <v>0.147148956006275</v>
+        <v>0.155706416169318</v>
       </c>
       <c r="AD9">
-        <v>0.1450237629276347</v>
+        <v>0.15403961681489</v>
       </c>
       <c r="AE9">
-        <v>0.1429479778092263</v>
+        <v>0.1524234656565297</v>
       </c>
       <c r="AF9">
-        <v>0.140920187688411</v>
+        <v>0.1508560896938108</v>
       </c>
     </row>
     <row r="10" spans="1:32">
@@ -1297,97 +1297,97 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8090798252082536</v>
+        <v>0.8090798252082535</v>
       </c>
       <c r="C10">
-        <v>0.8352602500361945</v>
+        <v>0.8352602500361944</v>
       </c>
       <c r="D10">
-        <v>0.8620407216045536</v>
+        <v>0.8617387986402399</v>
       </c>
       <c r="E10">
-        <v>0.8894271780812113</v>
+        <v>0.8885019868642302</v>
       </c>
       <c r="F10">
-        <v>0.9174254142441441</v>
+        <v>0.9155361657180814</v>
       </c>
       <c r="G10">
-        <v>0.946041077368473</v>
+        <v>0.9428275487579065</v>
       </c>
       <c r="H10">
-        <v>0.9752796632267402</v>
+        <v>0.9703622389244734</v>
       </c>
       <c r="I10">
-        <v>1.005146512206049</v>
+        <v>0.9981262547758556</v>
       </c>
       <c r="J10">
-        <v>1.03564680554551</v>
+        <v>1.026105556055973</v>
       </c>
       <c r="K10">
-        <v>1.066785561697256</v>
+        <v>1.054286068546467</v>
       </c>
       <c r="L10">
-        <v>1.098567632814073</v>
+        <v>1.082653708155035</v>
       </c>
       <c r="M10">
-        <v>1.130997701366536</v>
+        <v>1.111194404198853</v>
       </c>
       <c r="N10">
-        <v>1.164080276892311</v>
+        <v>1.139894121847135</v>
       </c>
       <c r="O10">
-        <v>1.197819692880092</v>
+        <v>1.168738883692061</v>
       </c>
       <c r="P10">
-        <v>1.232220103790469</v>
+        <v>1.197714790422351</v>
       </c>
       <c r="Q10">
-        <v>1.267285482215792</v>
+        <v>1.226808040578585</v>
       </c>
       <c r="R10">
-        <v>1.303019616180915</v>
+        <v>1.256004949373965</v>
       </c>
       <c r="S10">
-        <v>1.339426106586518</v>
+        <v>1.285291966568644</v>
       </c>
       <c r="T10">
-        <v>1.376508364796471</v>
+        <v>1.314655693389845</v>
       </c>
       <c r="U10">
-        <v>1.414269610370551</v>
+        <v>1.344082898493974</v>
       </c>
       <c r="V10">
-        <v>1.452712868943602</v>
+        <v>1.373560532970569</v>
       </c>
       <c r="W10">
-        <v>1.491840970252049</v>
+        <v>1.40307574439139</v>
       </c>
       <c r="X10">
-        <v>1.53165654630846</v>
+        <v>1.43261588991115</v>
       </c>
       <c r="Y10">
-        <v>1.572162029724719</v>
+        <v>1.462168548429325</v>
       </c>
       <c r="Z10">
-        <v>1.613359652184112</v>
+        <v>1.491721531825245</v>
       </c>
       <c r="AA10">
-        <v>1.655251443062506</v>
+        <v>1.521262895281107</v>
       </c>
       <c r="AB10">
-        <v>1.697839228198598</v>
+        <v>1.550780946709848</v>
       </c>
       <c r="AC10">
-        <v>1.741124628813028</v>
+        <v>1.580264255306835</v>
       </c>
       <c r="AD10">
-        <v>1.785109060575992</v>
+        <v>1.609701659246153</v>
       </c>
       <c r="AE10">
-        <v>1.829793732822809</v>
+        <v>1.639082272543896</v>
       </c>
       <c r="AF10">
-        <v>1.87517964791675</v>
+        <v>1.668395491112266</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -1395,97 +1395,97 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.297399964447877</v>
+        <v>0.2973999644478772</v>
       </c>
       <c r="C11">
-        <v>0.2960223741642076</v>
+        <v>0.2960223741642077</v>
       </c>
       <c r="D11">
-        <v>0.2946634775475886</v>
+        <v>0.2946785268732864</v>
       </c>
       <c r="E11">
-        <v>0.2933229651664814</v>
+        <v>0.2933674755471544</v>
       </c>
       <c r="F11">
-        <v>0.292000533789868</v>
+        <v>0.2920883045781396</v>
       </c>
       <c r="G11">
-        <v>0.290695886241505</v>
+        <v>0.2908401285468341</v>
       </c>
       <c r="H11">
-        <v>0.289408731258076</v>
+        <v>0.2896220910458209</v>
       </c>
       <c r="I11">
-        <v>0.288138783351126</v>
+        <v>0.2884333635563162</v>
       </c>
       <c r="J11">
-        <v>0.2868857626726646</v>
+        <v>0.2872731443750495</v>
       </c>
       <c r="K11">
-        <v>0.2856493948843316</v>
+        <v>0.286140657588856</v>
       </c>
       <c r="L11">
-        <v>0.2844294110300165</v>
+        <v>0.2850351520945928</v>
       </c>
       <c r="M11">
-        <v>0.2832255474118338</v>
+        <v>0.2839559006621259</v>
       </c>
       <c r="N11">
-        <v>0.2820375454693528</v>
+        <v>0.2829021990382548</v>
       </c>
       <c r="O11">
-        <v>0.2808651516619884</v>
+        <v>0.281873365089562</v>
       </c>
       <c r="P11">
-        <v>0.2797081173544591</v>
+        <v>0.2808687379822805</v>
       </c>
       <c r="Q11">
-        <v>0.2785661987052249</v>
+        <v>0.2798876773973784</v>
       </c>
       <c r="R11">
-        <v>0.2774391565578173</v>
+        <v>0.2789295627791538</v>
       </c>
       <c r="S11">
-        <v>0.2763267563349777</v>
+        <v>0.2779937926157282</v>
       </c>
       <c r="T11">
-        <v>0.2752287679355243</v>
+        <v>0.2770797837499075</v>
       </c>
       <c r="U11">
-        <v>0.2741449656338682</v>
+        <v>0.2761869707189659</v>
       </c>
       <c r="V11">
-        <v>0.2730751279821025</v>
+        <v>0.27531480512198</v>
       </c>
       <c r="W11">
-        <v>0.2720190377145923</v>
+        <v>0.2744627550134154</v>
       </c>
       <c r="X11">
-        <v>0.2709764816549924</v>
+        <v>0.2736303043217332</v>
       </c>
       <c r="Y11">
-        <v>0.2699472506256252</v>
+        <v>0.2728169522918497</v>
       </c>
       <c r="Z11">
-        <v>0.2689311393591519</v>
+        <v>0.272022212950342</v>
       </c>
       <c r="AA11">
-        <v>0.2679279464124704</v>
+        <v>0.27124561459235</v>
       </c>
       <c r="AB11">
-        <v>0.2669374740827801</v>
+        <v>0.2704866992891765</v>
       </c>
       <c r="AC11">
-        <v>0.2659595283257503</v>
+        <v>0.2697450224156407</v>
       </c>
       <c r="AD11">
-        <v>0.2649939186757342</v>
+        <v>0.2690201521962882</v>
       </c>
       <c r="AE11">
-        <v>0.2640404581679718</v>
+        <v>0.2683116692696015</v>
       </c>
       <c r="AF11">
-        <v>0.2630989632627252</v>
+        <v>0.2676191662694052</v>
       </c>
     </row>
     <row r="12" spans="1:32">
@@ -1496,94 +1496,94 @@
         <v>0.2021337213914698</v>
       </c>
       <c r="C12">
-        <v>0.195397820029489</v>
+        <v>0.1953978200294889</v>
       </c>
       <c r="D12">
-        <v>0.188944009976736</v>
+        <v>0.1890144634586045</v>
       </c>
       <c r="E12">
-        <v>0.1827585995577724</v>
+        <v>0.1829611388965813</v>
       </c>
       <c r="F12">
-        <v>0.1768286423554158</v>
+        <v>0.1772170063113706</v>
       </c>
       <c r="G12">
-        <v>0.1711418926317662</v>
+        <v>0.1717627583540662</v>
       </c>
       <c r="H12">
-        <v>0.1656867636393664</v>
+        <v>0.1665804932379849</v>
       </c>
       <c r="I12">
-        <v>0.1604522886214632</v>
+        <v>0.1616535992619632</v>
       </c>
       <c r="J12">
-        <v>0.1554280843152192</v>
+        <v>0.1569666498168946</v>
       </c>
       <c r="K12">
-        <v>0.1506043167854494</v>
+        <v>0.1525053078391756</v>
       </c>
       <c r="L12">
-        <v>0.1459716694291063</v>
+        <v>0.1482562387850836</v>
       </c>
       <c r="M12">
-        <v>0.1415213130024033</v>
+        <v>0.1442070312979137</v>
       </c>
       <c r="N12">
-        <v>0.1372448775332361</v>
+        <v>0.1403461248264637</v>
       </c>
       <c r="O12">
-        <v>0.1331344259914976</v>
+        <v>0.1366627435305078</v>
       </c>
       <c r="P12">
-        <v>0.1291824295990569</v>
+        <v>0.1331468358773895</v>
       </c>
       <c r="Q12">
-        <v>0.1253817446696524</v>
+        <v>0.1297890193947998</v>
       </c>
       <c r="R12">
-        <v>0.1217255908767776</v>
+        <v>0.126580530099081</v>
       </c>
       <c r="S12">
-        <v>0.118207530854884</v>
+        <v>0.1235131761667771</v>
       </c>
       <c r="T12">
-        <v>0.1148214510459142</v>
+        <v>0.1205792954603157</v>
       </c>
       <c r="U12">
-        <v>0.1115615437093786</v>
+        <v>0.1177717165572645</v>
       </c>
       <c r="V12">
-        <v>0.1084222900199153</v>
+        <v>0.1150837229670643</v>
       </c>
       <c r="W12">
-        <v>0.1053984441815825</v>
+        <v>0.1125090202499738</v>
       </c>
       <c r="X12">
-        <v>0.1024850184930433</v>
+        <v>0.1100417057805726</v>
       </c>
       <c r="Y12">
-        <v>0.09967726930235583</v>
+        <v>0.1076762409229149</v>
       </c>
       <c r="Z12">
-        <v>0.09697068379429899</v>
+        <v>0.1054074254066238</v>
       </c>
       <c r="AA12">
-        <v>0.09436096755707427</v>
+        <v>0.103230373713146</v>
       </c>
       <c r="AB12">
-        <v>0.09184403287884917</v>
+        <v>0.1011404932992939</v>
       </c>
       <c r="AC12">
-        <v>0.08941598772797206</v>
+        <v>0.09913346450130552</v>
       </c>
       <c r="AD12">
-        <v>0.08707312537380855</v>
+        <v>0.09720522197714733</v>
       </c>
       <c r="AE12">
-        <v>0.08481191460804706</v>
+        <v>0.09535193755783987</v>
       </c>
       <c r="AF12">
-        <v>0.08262899052901086</v>
+        <v>0.09357000439035482</v>
       </c>
     </row>
     <row r="13" spans="1:32">
@@ -1594,94 +1594,94 @@
         <v>0.4269937661984928</v>
       </c>
       <c r="C13">
-        <v>0.3582738118342021</v>
+        <v>0.3582738118342019</v>
       </c>
       <c r="D13">
-        <v>0.301088697090895</v>
+        <v>0.3016704169305549</v>
       </c>
       <c r="E13">
-        <v>0.2534273753603147</v>
+        <v>0.2548848541554012</v>
       </c>
       <c r="F13">
-        <v>0.2136417700988741</v>
+        <v>0.2160822579090675</v>
       </c>
       <c r="G13">
-        <v>0.1803791415048084</v>
+        <v>0.1837928818500048</v>
       </c>
       <c r="H13">
-        <v>0.1525274333697633</v>
+        <v>0.1568353921457975</v>
       </c>
       <c r="I13">
-        <v>0.1291710393829156</v>
+        <v>0.1342570663182966</v>
       </c>
       <c r="J13">
-        <v>0.1095549465506057</v>
+        <v>0.1152870085791535</v>
       </c>
       <c r="K13">
-        <v>0.09305562425963754</v>
+        <v>0.09929942265426488</v>
       </c>
       <c r="L13">
-        <v>0.07915735367613733</v>
+        <v>0.08578468272629798</v>
       </c>
       <c r="M13">
-        <v>0.06743295150351243</v>
+        <v>0.07432647128768018</v>
       </c>
       <c r="N13">
-        <v>0.05752804863872842</v>
+        <v>0.0645836528267526</v>
       </c>
       <c r="O13">
-        <v>0.04914824897705862</v>
+        <v>0.05627585645784011</v>
       </c>
       <c r="P13">
-        <v>0.04204862518581471</v>
+        <v>0.0491719726466775</v>
       </c>
       <c r="Q13">
-        <v>0.03602511352534149</v>
+        <v>0.04308094678218499</v>
       </c>
       <c r="R13">
-        <v>0.03090745413005436</v>
+        <v>0.03784438872545637</v>
       </c>
       <c r="S13">
-        <v>0.02655339083378147</v>
+        <v>0.03333062253345456</v>
       </c>
       <c r="T13">
-        <v>0.02284389900502469</v>
+        <v>0.02942988175591191</v>
       </c>
       <c r="U13">
-        <v>0.01967925362333785</v>
+        <v>0.02605041865693726</v>
       </c>
       <c r="V13">
-        <v>0.01697578510151359</v>
+        <v>0.0231153446689384</v>
       </c>
       <c r="W13">
-        <v>0.01466319882855756</v>
+        <v>0.02056005757297943</v>
       </c>
       <c r="X13">
-        <v>0.01268235742060057</v>
+        <v>0.01833014077439362</v>
       </c>
       <c r="Y13">
-        <v>0.01098344329379255</v>
+        <v>0.01637964348291722</v>
       </c>
       <c r="Z13">
-        <v>0.009524434271769504</v>
+        <v>0.01466966905147548</v>
       </c>
       <c r="AA13">
-        <v>0.008269837195941864</v>
+        <v>0.01316721328273147</v>
       </c>
       <c r="AB13">
-        <v>0.007189634468694642</v>
+        <v>0.01184420602988545</v>
       </c>
       <c r="AC13">
-        <v>0.006258406568066632</v>
+        <v>0.01067671855684933</v>
       </c>
       <c r="AD13">
-        <v>0.00545460018139401</v>
+        <v>0.009644306393606285</v>
       </c>
       <c r="AE13">
-        <v>0.004759916999368027</v>
+        <v>0.008729463222405736</v>
       </c>
       <c r="AF13">
-        <v>0.004158802620218037</v>
+        <v>0.007917165969018827</v>
       </c>
     </row>
   </sheetData>
